--- a/programmers-algokit/programmers-algokit 내용 정리.xlsx
+++ b/programmers-algokit/programmers-algokit 내용 정리.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KDJ\Desktop\algorithm-practice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KDJ\Desktop\algorithm-practice\programmers-algokit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EF567F-25E2-4444-9655-D3DC0420ABEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9183BA-80D9-46BB-B56E-0639609F6498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" tabRatio="855" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="855" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="목차" sheetId="1" r:id="rId1"/>
@@ -5003,7 +5003,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5169,6 +5169,15 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -5183,18 +5192,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8590,141 +8587,141 @@
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>2</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
     </row>
     <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>3</v>
       </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>4</v>
       </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="55"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>5</v>
       </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>6</v>
       </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
     </row>
     <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>7</v>
       </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -8750,7 +8747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74305CAB-EF31-4180-A9B1-F3B919031D3D}">
   <dimension ref="A1:Q96"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
@@ -8762,12 +8759,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="60" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58"/>
+      <c r="A2" s="61"/>
       <c r="M2" s="12" t="s">
         <v>6</v>
       </c>
@@ -8777,7 +8774,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="58"/>
+      <c r="A3" s="61"/>
       <c r="H3" s="6"/>
       <c r="M3" s="14" t="s">
         <v>7</v>
@@ -8788,7 +8785,7 @@
       <c r="Q3" s="15"/>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="58"/>
+      <c r="A4" s="61"/>
       <c r="H4" s="6"/>
       <c r="M4" s="10" t="s">
         <v>8</v>
@@ -8799,15 +8796,15 @@
       <c r="Q4" s="10"/>
     </row>
     <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="58"/>
+      <c r="A5" s="61"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="58"/>
+      <c r="A6" s="61"/>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="58"/>
+      <c r="A7" s="61"/>
       <c r="H7" s="6"/>
     </row>
     <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -9203,8 +9200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27DC9AE-D3F3-4D99-93B4-7F898251C61F}">
   <dimension ref="A1:X101"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="J57" sqref="J57"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="AC21" sqref="AC21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9213,12 +9210,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="60" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58"/>
+      <c r="A2" s="61"/>
       <c r="M2" s="12" t="s">
         <v>6</v>
       </c>
@@ -9228,7 +9225,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="58"/>
+      <c r="A3" s="61"/>
       <c r="H3" s="6"/>
       <c r="M3" s="14" t="s">
         <v>7</v>
@@ -9239,7 +9236,7 @@
       <c r="Q3" s="15"/>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="58"/>
+      <c r="A4" s="61"/>
       <c r="H4" s="6"/>
       <c r="M4" s="10" t="s">
         <v>8</v>
@@ -9249,15 +9246,15 @@
       <c r="P4" s="10"/>
     </row>
     <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="58"/>
+      <c r="A5" s="61"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="58"/>
+      <c r="A6" s="61"/>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="58"/>
+      <c r="A7" s="61"/>
       <c r="H7" s="6"/>
     </row>
     <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -9352,226 +9349,226 @@
       </c>
     </row>
     <row r="31" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E31" s="56" t="s">
+      <c r="E31" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56" t="s">
+      <c r="F31" s="59"/>
+      <c r="G31" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="56"/>
-      <c r="L31" s="56"/>
-      <c r="M31" s="56" t="s">
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="N31" s="56"/>
-      <c r="O31" s="56"/>
-      <c r="P31" s="56"/>
-      <c r="Q31" s="56"/>
-      <c r="R31" s="56"/>
-      <c r="S31" s="56" t="s">
+      <c r="N31" s="59"/>
+      <c r="O31" s="59"/>
+      <c r="P31" s="59"/>
+      <c r="Q31" s="59"/>
+      <c r="R31" s="59"/>
+      <c r="S31" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="T31" s="56"/>
-      <c r="U31" s="56"/>
-      <c r="V31" s="56"/>
-      <c r="W31" s="56"/>
-      <c r="X31" s="56"/>
+      <c r="T31" s="59"/>
+      <c r="U31" s="59"/>
+      <c r="V31" s="59"/>
+      <c r="W31" s="59"/>
+      <c r="X31" s="59"/>
     </row>
     <row r="32" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E32" s="56" t="s">
+      <c r="E32" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="F32" s="56"/>
-      <c r="G32" s="59" t="s">
+      <c r="F32" s="59"/>
+      <c r="G32" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="56"/>
-      <c r="M32" s="59" t="s">
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="N32" s="56"/>
-      <c r="O32" s="56"/>
-      <c r="P32" s="56"/>
-      <c r="Q32" s="56"/>
-      <c r="R32" s="56"/>
-      <c r="S32" s="59" t="s">
+      <c r="N32" s="59"/>
+      <c r="O32" s="59"/>
+      <c r="P32" s="59"/>
+      <c r="Q32" s="59"/>
+      <c r="R32" s="59"/>
+      <c r="S32" s="62" t="s">
         <v>136</v>
       </c>
-      <c r="T32" s="56"/>
-      <c r="U32" s="56"/>
-      <c r="V32" s="56"/>
-      <c r="W32" s="56"/>
-      <c r="X32" s="56"/>
+      <c r="T32" s="59"/>
+      <c r="U32" s="59"/>
+      <c r="V32" s="59"/>
+      <c r="W32" s="59"/>
+      <c r="X32" s="59"/>
     </row>
     <row r="33" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="56"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="56"/>
-      <c r="M33" s="56"/>
-      <c r="N33" s="56"/>
-      <c r="O33" s="56"/>
-      <c r="P33" s="56"/>
-      <c r="Q33" s="56"/>
-      <c r="R33" s="56"/>
-      <c r="S33" s="56"/>
-      <c r="T33" s="56"/>
-      <c r="U33" s="56"/>
-      <c r="V33" s="56"/>
-      <c r="W33" s="56"/>
-      <c r="X33" s="56"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="59"/>
+      <c r="N33" s="59"/>
+      <c r="O33" s="59"/>
+      <c r="P33" s="59"/>
+      <c r="Q33" s="59"/>
+      <c r="R33" s="59"/>
+      <c r="S33" s="59"/>
+      <c r="T33" s="59"/>
+      <c r="U33" s="59"/>
+      <c r="V33" s="59"/>
+      <c r="W33" s="59"/>
+      <c r="X33" s="59"/>
     </row>
     <row r="34" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="56"/>
-      <c r="L34" s="56"/>
-      <c r="M34" s="56"/>
-      <c r="N34" s="56"/>
-      <c r="O34" s="56"/>
-      <c r="P34" s="56"/>
-      <c r="Q34" s="56"/>
-      <c r="R34" s="56"/>
-      <c r="S34" s="56"/>
-      <c r="T34" s="56"/>
-      <c r="U34" s="56"/>
-      <c r="V34" s="56"/>
-      <c r="W34" s="56"/>
-      <c r="X34" s="56"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="59"/>
+      <c r="M34" s="59"/>
+      <c r="N34" s="59"/>
+      <c r="O34" s="59"/>
+      <c r="P34" s="59"/>
+      <c r="Q34" s="59"/>
+      <c r="R34" s="59"/>
+      <c r="S34" s="59"/>
+      <c r="T34" s="59"/>
+      <c r="U34" s="59"/>
+      <c r="V34" s="59"/>
+      <c r="W34" s="59"/>
+      <c r="X34" s="59"/>
     </row>
     <row r="35" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="56"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="56"/>
-      <c r="M35" s="56"/>
-      <c r="N35" s="56"/>
-      <c r="O35" s="56"/>
-      <c r="P35" s="56"/>
-      <c r="Q35" s="56"/>
-      <c r="R35" s="56"/>
-      <c r="S35" s="56"/>
-      <c r="T35" s="56"/>
-      <c r="U35" s="56"/>
-      <c r="V35" s="56"/>
-      <c r="W35" s="56"/>
-      <c r="X35" s="56"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="59"/>
+      <c r="K35" s="59"/>
+      <c r="L35" s="59"/>
+      <c r="M35" s="59"/>
+      <c r="N35" s="59"/>
+      <c r="O35" s="59"/>
+      <c r="P35" s="59"/>
+      <c r="Q35" s="59"/>
+      <c r="R35" s="59"/>
+      <c r="S35" s="59"/>
+      <c r="T35" s="59"/>
+      <c r="U35" s="59"/>
+      <c r="V35" s="59"/>
+      <c r="W35" s="59"/>
+      <c r="X35" s="59"/>
     </row>
     <row r="36" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E36" s="56" t="s">
+      <c r="E36" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="F36" s="56"/>
-      <c r="G36" s="59" t="s">
+      <c r="F36" s="59"/>
+      <c r="G36" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="H36" s="56"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="56"/>
-      <c r="L36" s="56"/>
-      <c r="M36" s="59" t="s">
+      <c r="H36" s="59"/>
+      <c r="I36" s="59"/>
+      <c r="J36" s="59"/>
+      <c r="K36" s="59"/>
+      <c r="L36" s="59"/>
+      <c r="M36" s="62" t="s">
         <v>135</v>
       </c>
-      <c r="N36" s="56"/>
-      <c r="O36" s="56"/>
-      <c r="P36" s="56"/>
-      <c r="Q36" s="56"/>
-      <c r="R36" s="56"/>
-      <c r="S36" s="59" t="s">
+      <c r="N36" s="59"/>
+      <c r="O36" s="59"/>
+      <c r="P36" s="59"/>
+      <c r="Q36" s="59"/>
+      <c r="R36" s="59"/>
+      <c r="S36" s="62" t="s">
         <v>137</v>
       </c>
-      <c r="T36" s="56"/>
-      <c r="U36" s="56"/>
-      <c r="V36" s="56"/>
-      <c r="W36" s="56"/>
-      <c r="X36" s="56"/>
+      <c r="T36" s="59"/>
+      <c r="U36" s="59"/>
+      <c r="V36" s="59"/>
+      <c r="W36" s="59"/>
+      <c r="X36" s="59"/>
     </row>
     <row r="37" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="56"/>
-      <c r="K37" s="56"/>
-      <c r="L37" s="56"/>
-      <c r="M37" s="56"/>
-      <c r="N37" s="56"/>
-      <c r="O37" s="56"/>
-      <c r="P37" s="56"/>
-      <c r="Q37" s="56"/>
-      <c r="R37" s="56"/>
-      <c r="S37" s="56"/>
-      <c r="T37" s="56"/>
-      <c r="U37" s="56"/>
-      <c r="V37" s="56"/>
-      <c r="W37" s="56"/>
-      <c r="X37" s="56"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="59"/>
+      <c r="J37" s="59"/>
+      <c r="K37" s="59"/>
+      <c r="L37" s="59"/>
+      <c r="M37" s="59"/>
+      <c r="N37" s="59"/>
+      <c r="O37" s="59"/>
+      <c r="P37" s="59"/>
+      <c r="Q37" s="59"/>
+      <c r="R37" s="59"/>
+      <c r="S37" s="59"/>
+      <c r="T37" s="59"/>
+      <c r="U37" s="59"/>
+      <c r="V37" s="59"/>
+      <c r="W37" s="59"/>
+      <c r="X37" s="59"/>
     </row>
     <row r="38" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="56"/>
-      <c r="J38" s="56"/>
-      <c r="K38" s="56"/>
-      <c r="L38" s="56"/>
-      <c r="M38" s="56"/>
-      <c r="N38" s="56"/>
-      <c r="O38" s="56"/>
-      <c r="P38" s="56"/>
-      <c r="Q38" s="56"/>
-      <c r="R38" s="56"/>
-      <c r="S38" s="56"/>
-      <c r="T38" s="56"/>
-      <c r="U38" s="56"/>
-      <c r="V38" s="56"/>
-      <c r="W38" s="56"/>
-      <c r="X38" s="56"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="59"/>
+      <c r="J38" s="59"/>
+      <c r="K38" s="59"/>
+      <c r="L38" s="59"/>
+      <c r="M38" s="59"/>
+      <c r="N38" s="59"/>
+      <c r="O38" s="59"/>
+      <c r="P38" s="59"/>
+      <c r="Q38" s="59"/>
+      <c r="R38" s="59"/>
+      <c r="S38" s="59"/>
+      <c r="T38" s="59"/>
+      <c r="U38" s="59"/>
+      <c r="V38" s="59"/>
+      <c r="W38" s="59"/>
+      <c r="X38" s="59"/>
     </row>
     <row r="39" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E39" s="56"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="56"/>
-      <c r="H39" s="56"/>
-      <c r="I39" s="56"/>
-      <c r="J39" s="56"/>
-      <c r="K39" s="56"/>
-      <c r="L39" s="56"/>
-      <c r="M39" s="56"/>
-      <c r="N39" s="56"/>
-      <c r="O39" s="56"/>
-      <c r="P39" s="56"/>
-      <c r="Q39" s="56"/>
-      <c r="R39" s="56"/>
-      <c r="S39" s="56"/>
-      <c r="T39" s="56"/>
-      <c r="U39" s="56"/>
-      <c r="V39" s="56"/>
-      <c r="W39" s="56"/>
-      <c r="X39" s="56"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="59"/>
+      <c r="J39" s="59"/>
+      <c r="K39" s="59"/>
+      <c r="L39" s="59"/>
+      <c r="M39" s="59"/>
+      <c r="N39" s="59"/>
+      <c r="O39" s="59"/>
+      <c r="P39" s="59"/>
+      <c r="Q39" s="59"/>
+      <c r="R39" s="59"/>
+      <c r="S39" s="59"/>
+      <c r="T39" s="59"/>
+      <c r="U39" s="59"/>
+      <c r="V39" s="59"/>
+      <c r="W39" s="59"/>
+      <c r="X39" s="59"/>
     </row>
     <row r="41" spans="3:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="14" t="s">
@@ -9839,11 +9836,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:A7"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:X31"/>
     <mergeCell ref="E36:F39"/>
     <mergeCell ref="G32:L35"/>
     <mergeCell ref="G36:L39"/>
@@ -9852,6 +9844,11 @@
     <mergeCell ref="M36:R39"/>
     <mergeCell ref="S36:X39"/>
     <mergeCell ref="E32:F35"/>
+    <mergeCell ref="A1:A7"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:X31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -9867,7 +9864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5CE60D-3F10-4903-B885-6CDA794FB40F}">
   <dimension ref="A1:Q128"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A124" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
@@ -9877,12 +9874,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="60" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58"/>
+      <c r="A2" s="61"/>
       <c r="M2" s="12" t="s">
         <v>6</v>
       </c>
@@ -9892,7 +9889,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="58"/>
+      <c r="A3" s="61"/>
       <c r="E3" s="6"/>
       <c r="H3" s="6"/>
       <c r="M3" s="14" t="s">
@@ -9904,7 +9901,7 @@
       <c r="Q3" s="15"/>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="58"/>
+      <c r="A4" s="61"/>
       <c r="E4" s="6"/>
       <c r="H4" s="6"/>
       <c r="M4" s="10" t="s">
@@ -9915,17 +9912,17 @@
       <c r="P4" s="10"/>
     </row>
     <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="58"/>
+      <c r="A5" s="61"/>
       <c r="E5" s="6"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="58"/>
+      <c r="A6" s="61"/>
       <c r="E6" s="6"/>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="58"/>
+      <c r="A7" s="61"/>
       <c r="H7" s="6"/>
     </row>
     <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -10590,7 +10587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8709AF78-8857-4867-B1DD-14A6DFC4B711}">
   <dimension ref="A1:U108"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I108" sqref="I108"/>
     </sheetView>
   </sheetViews>
@@ -10600,12 +10597,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="60" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58"/>
+      <c r="A2" s="61"/>
       <c r="M2" s="12" t="s">
         <v>6</v>
       </c>
@@ -10615,7 +10612,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="58"/>
+      <c r="A3" s="61"/>
       <c r="H3" s="6"/>
       <c r="M3" s="14" t="s">
         <v>7</v>
@@ -10626,7 +10623,7 @@
       <c r="Q3" s="15"/>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="58"/>
+      <c r="A4" s="61"/>
       <c r="H4" s="6"/>
       <c r="M4" s="10" t="s">
         <v>8</v>
@@ -10636,15 +10633,15 @@
       <c r="P4" s="10"/>
     </row>
     <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="58"/>
+      <c r="A5" s="61"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="58"/>
+      <c r="A6" s="61"/>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="58"/>
+      <c r="A7" s="61"/>
       <c r="H7" s="6"/>
     </row>
     <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -11157,12 +11154,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="60" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58"/>
+      <c r="A2" s="61"/>
       <c r="M2" s="12" t="s">
         <v>6</v>
       </c>
@@ -11172,7 +11169,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="58"/>
+      <c r="A3" s="61"/>
       <c r="H3" s="6"/>
       <c r="M3" s="14" t="s">
         <v>7</v>
@@ -11183,7 +11180,7 @@
       <c r="Q3" s="15"/>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="58"/>
+      <c r="A4" s="61"/>
       <c r="H4" s="6"/>
       <c r="M4" s="10" t="s">
         <v>8</v>
@@ -11193,15 +11190,15 @@
       <c r="P4" s="10"/>
     </row>
     <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="58"/>
+      <c r="A5" s="61"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="58"/>
+      <c r="A6" s="61"/>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="58"/>
+      <c r="A7" s="61"/>
       <c r="H7" s="6"/>
     </row>
     <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -11251,7 +11248,7 @@
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="60" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="3"/>
@@ -11277,7 +11274,7 @@
       <c r="V1" s="3"/>
     </row>
     <row r="2" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58"/>
+      <c r="A2" s="61"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -11301,7 +11298,7 @@
       <c r="U2" s="3"/>
     </row>
     <row r="3" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="58"/>
+      <c r="A3" s="61"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -11325,7 +11322,7 @@
       <c r="U3" s="3"/>
     </row>
     <row r="4" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="58"/>
+      <c r="A4" s="61"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -11348,7 +11345,7 @@
       <c r="U4" s="3"/>
     </row>
     <row r="5" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="58"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -11366,7 +11363,7 @@
       <c r="U5" s="3"/>
     </row>
     <row r="6" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="58"/>
+      <c r="A6" s="61"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -11384,7 +11381,7 @@
       <c r="U6" s="3"/>
     </row>
     <row r="7" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="58"/>
+      <c r="A7" s="61"/>
       <c r="H7" s="5"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -11890,12 +11887,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="60" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58"/>
+      <c r="A2" s="61"/>
       <c r="M2" s="12" t="s">
         <v>6</v>
       </c>
@@ -11905,7 +11902,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="58"/>
+      <c r="A3" s="61"/>
       <c r="H3" s="6"/>
       <c r="M3" s="14" t="s">
         <v>7</v>
@@ -11916,7 +11913,7 @@
       <c r="Q3" s="15"/>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="58"/>
+      <c r="A4" s="61"/>
       <c r="H4" s="6"/>
       <c r="M4" s="10" t="s">
         <v>8</v>
@@ -11926,15 +11923,15 @@
       <c r="P4" s="10"/>
     </row>
     <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="58"/>
+      <c r="A5" s="61"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="58"/>
+      <c r="A6" s="61"/>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="58"/>
+      <c r="A7" s="61"/>
       <c r="H7" s="6"/>
     </row>
     <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -11965,7 +11962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0015D3D8-28C8-4D30-AB02-9DF427919E12}">
   <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
@@ -11975,12 +11972,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="60" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58"/>
+      <c r="A2" s="61"/>
       <c r="M2" s="12" t="s">
         <v>6</v>
       </c>
@@ -11990,7 +11987,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="58"/>
+      <c r="A3" s="61"/>
       <c r="H3" s="6"/>
       <c r="M3" s="14" t="s">
         <v>7</v>
@@ -12001,7 +11998,7 @@
       <c r="Q3" s="15"/>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="58"/>
+      <c r="A4" s="61"/>
       <c r="H4" s="6"/>
       <c r="M4" s="10" t="s">
         <v>8</v>
@@ -12011,15 +12008,15 @@
       <c r="P4" s="10"/>
     </row>
     <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="58"/>
+      <c r="A5" s="61"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="58"/>
+      <c r="A6" s="61"/>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="58"/>
+      <c r="A7" s="61"/>
       <c r="H7" s="6"/>
     </row>
     <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -12149,7 +12146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA5DE37-041B-4789-BE71-8503090DF99E}">
   <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C30" sqref="C30:D30"/>
     </sheetView>
   </sheetViews>
@@ -12159,12 +12156,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="60" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58"/>
+      <c r="A2" s="61"/>
       <c r="M2" s="12" t="s">
         <v>6</v>
       </c>
@@ -12174,7 +12171,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="58"/>
+      <c r="A3" s="61"/>
       <c r="H3" s="6"/>
       <c r="M3" s="14" t="s">
         <v>7</v>
@@ -12185,7 +12182,7 @@
       <c r="Q3" s="15"/>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="58"/>
+      <c r="A4" s="61"/>
       <c r="H4" s="6"/>
       <c r="M4" s="10" t="s">
         <v>8</v>
@@ -12195,15 +12192,15 @@
       <c r="P4" s="10"/>
     </row>
     <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="58"/>
+      <c r="A5" s="61"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="58"/>
+      <c r="A6" s="61"/>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="58"/>
+      <c r="A7" s="61"/>
       <c r="H7" s="6"/>
     </row>
     <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -12314,7 +12311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD41A1E1-188A-4F1E-BBC7-E090551937C4}">
   <dimension ref="A1:U197"/>
   <sheetViews>
-    <sheetView topLeftCell="A173" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D198" sqref="D198"/>
     </sheetView>
   </sheetViews>
@@ -12324,12 +12321,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="60" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58"/>
+      <c r="A2" s="61"/>
       <c r="M2" s="12" t="s">
         <v>6</v>
       </c>
@@ -12339,7 +12336,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="58"/>
+      <c r="A3" s="61"/>
       <c r="H3" s="6"/>
       <c r="M3" s="14" t="s">
         <v>7</v>
@@ -12350,7 +12347,7 @@
       <c r="Q3" s="15"/>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="58"/>
+      <c r="A4" s="61"/>
       <c r="H4" s="6"/>
       <c r="M4" s="10" t="s">
         <v>8</v>
@@ -12361,15 +12358,15 @@
       <c r="Q4" s="10"/>
     </row>
     <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="58"/>
+      <c r="A5" s="61"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="58"/>
+      <c r="A6" s="61"/>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="58"/>
+      <c r="A7" s="61"/>
       <c r="H7" s="6"/>
     </row>
     <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -12927,7 +12924,6 @@
     </row>
     <row r="133" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E133" s="43"/>
-      <c r="F133" s="63"/>
       <c r="G133" s="42"/>
     </row>
     <row r="134" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -12962,11 +12958,11 @@
       </c>
     </row>
     <row r="141" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E141" s="60"/>
-      <c r="F141" s="61"/>
-      <c r="G141" s="61"/>
-      <c r="H141" s="61"/>
-      <c r="I141" s="62"/>
+      <c r="E141" s="55"/>
+      <c r="F141" s="56"/>
+      <c r="G141" s="56"/>
+      <c r="H141" s="56"/>
+      <c r="I141" s="57"/>
     </row>
     <row r="143" spans="4:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D143" s="3" t="s">
@@ -13226,12 +13222,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="60" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58"/>
+      <c r="A2" s="61"/>
       <c r="M2" s="12" t="s">
         <v>6</v>
       </c>
@@ -13241,7 +13237,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="58"/>
+      <c r="A3" s="61"/>
       <c r="H3" s="6"/>
       <c r="M3" s="14" t="s">
         <v>7</v>
@@ -13252,7 +13248,7 @@
       <c r="Q3" s="15"/>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="58"/>
+      <c r="A4" s="61"/>
       <c r="H4" s="6"/>
       <c r="M4" s="10" t="s">
         <v>8</v>
@@ -13262,15 +13258,15 @@
       <c r="P4" s="10"/>
     </row>
     <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="58"/>
+      <c r="A5" s="61"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="58"/>
+      <c r="A6" s="61"/>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="58"/>
+      <c r="A7" s="61"/>
       <c r="H7" s="6"/>
     </row>
     <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -13607,7 +13603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E7D2B5-3732-46A4-9814-CED24E1391C4}">
   <dimension ref="A1:U113"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" workbookViewId="0">
+    <sheetView topLeftCell="A80" workbookViewId="0">
       <selection activeCell="W111" sqref="W111"/>
     </sheetView>
   </sheetViews>
@@ -13617,12 +13613,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="60" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58"/>
+      <c r="A2" s="61"/>
       <c r="M2" s="12" t="s">
         <v>6</v>
       </c>
@@ -13632,7 +13628,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="58"/>
+      <c r="A3" s="61"/>
       <c r="H3" s="6"/>
       <c r="M3" s="14" t="s">
         <v>7</v>
@@ -13643,7 +13639,7 @@
       <c r="Q3" s="15"/>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="58"/>
+      <c r="A4" s="61"/>
       <c r="H4" s="6"/>
       <c r="M4" s="10" t="s">
         <v>8</v>
@@ -13653,15 +13649,15 @@
       <c r="P4" s="10"/>
     </row>
     <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="58"/>
+      <c r="A5" s="61"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="58"/>
+      <c r="A6" s="61"/>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="58"/>
+      <c r="A7" s="61"/>
       <c r="H7" s="6"/>
     </row>
     <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -14413,7 +14409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEFF7ADC-9B90-43D2-923E-01DE6568B968}">
   <dimension ref="A1:Q60"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
@@ -14423,12 +14419,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="60" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58"/>
+      <c r="A2" s="61"/>
       <c r="M2" s="12" t="s">
         <v>6</v>
       </c>
@@ -14438,7 +14434,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="58"/>
+      <c r="A3" s="61"/>
       <c r="H3" s="6"/>
       <c r="M3" s="14" t="s">
         <v>7</v>
@@ -14449,7 +14445,7 @@
       <c r="Q3" s="15"/>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="58"/>
+      <c r="A4" s="61"/>
       <c r="H4" s="6"/>
       <c r="M4" s="10" t="s">
         <v>8</v>
@@ -14459,15 +14455,15 @@
       <c r="P4" s="10"/>
     </row>
     <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="58"/>
+      <c r="A5" s="61"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="58"/>
+      <c r="A6" s="61"/>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="58"/>
+      <c r="A7" s="61"/>
       <c r="H7" s="6"/>
     </row>
     <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -14689,7 +14685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DCCDC4B-10B5-4FB8-B5BB-DE6FFA03CB16}">
   <dimension ref="A1:Q86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A82" workbookViewId="0">
       <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
@@ -14699,12 +14695,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="60" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58"/>
+      <c r="A2" s="61"/>
       <c r="M2" s="12" t="s">
         <v>6</v>
       </c>
@@ -14714,7 +14710,7 @@
       <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="58"/>
+      <c r="A3" s="61"/>
       <c r="H3" s="6"/>
       <c r="M3" s="14" t="s">
         <v>7</v>
@@ -14725,7 +14721,7 @@
       <c r="Q3" s="15"/>
     </row>
     <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="58"/>
+      <c r="A4" s="61"/>
       <c r="H4" s="6"/>
       <c r="M4" s="10" t="s">
         <v>8</v>
@@ -14735,15 +14731,15 @@
       <c r="P4" s="10"/>
     </row>
     <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="58"/>
+      <c r="A5" s="61"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="58"/>
+      <c r="A6" s="61"/>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="58"/>
+      <c r="A7" s="61"/>
       <c r="H7" s="6"/>
     </row>
     <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
